--- a/ตัวอย่างExcel import/Qa.xlsx
+++ b/ตัวอย่างExcel import/Qa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\testFlask\testFlask\ตัวอย่างExcel import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrueAcademy\QaWeb\ตัวอย่างExcel import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E2EC98C-4E00-41AE-8036-F07A655B36DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4383D0A-729C-4ED5-98D8-90E69944F252}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="1896" yWindow="6828" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>A100</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>xxx</t>
   </si>
@@ -61,12 +58,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Pattern_code</t>
-  </si>
-  <si>
     <t>Pattern_name</t>
   </si>
   <si>
@@ -101,15 +92,12 @@
   </si>
   <si>
     <t>Remark</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,9 +599,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,60 +957,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="14" max="14" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1057,12 +1044,6 @@
       </c>
       <c r="L2" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
